--- a/MOEA/Cost_excel_Jack_JK.xlsx
+++ b/MOEA/Cost_excel_Jack_JK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ariec\Desktop\working documents\formatting Jack data set and cultivation script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657FAA23-667E-4681-8168-C9EA5CCA4593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E230A3B8-70A2-4BA5-87B1-48DD432D2AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -320,6 +320,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -588,7 +592,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +658,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="8">
-        <v>184.6</v>
+        <v>307.66666666666669</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>6</v>
@@ -669,7 +673,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="8">
-        <v>63</v>
+        <v>45.833333333333336</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>6</v>
@@ -684,7 +688,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="8">
-        <v>95.5</v>
+        <v>132</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>6</v>
@@ -699,7 +703,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="8">
-        <v>529</v>
+        <v>528.82000000000005</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>6</v>
@@ -744,13 +748,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="8">
-        <v>1281.086</v>
+        <v>93.288986620127986</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D10">
-        <v>0.48</v>
+        <v>0.58711287199999995</v>
       </c>
       <c r="E10" s="9"/>
     </row>
@@ -759,13 +763,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="8">
-        <v>0</v>
+        <v>10.704419889502763</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D11">
-        <v>0.48</v>
+        <v>0.58711287199999995</v>
       </c>
       <c r="E11" s="9"/>
     </row>
@@ -774,13 +778,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="8">
-        <v>0</v>
+        <v>11.34</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="8">
-        <v>0</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="E12" s="9"/>
     </row>
@@ -789,8 +793,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="8">
-        <f>9961.899*0.000278</f>
-        <v>2.7694079219999996</v>
+        <v>8.56</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>19</v>
@@ -805,8 +808,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="8">
-        <f>1453.798*0.000278</f>
-        <v>0.40415584399999999</v>
+        <v>145.4</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>19</v>

--- a/MOEA/Cost_excel_Jack_JK.xlsx
+++ b/MOEA/Cost_excel_Jack_JK.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ariec\Desktop\working documents\formatting Jack data set and cultivation script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ariec\Desktop\Jordan Project\5-Code Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E230A3B8-70A2-4BA5-87B1-48DD432D2AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E6D230-73AA-41DA-83FE-198CA25F62DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="3570" windowWidth="21600" windowHeight="11355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
     <t>Electricity</t>
   </si>
   <si>
-    <t>MWh/ha/yr</t>
+    <t>MJ/ha/yr</t>
   </si>
 </sst>
 </file>
@@ -320,10 +320,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -592,7 +588,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
